--- a/time_series/data/例13.5.xlsx
+++ b/time_series/data/例13.5.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\（01）贾俊平个人文件\（05）贾俊平、何晓群、金勇进编著《统计学》（第七版）—21世纪系列教材—2017年9月\（05）《统计学》（第七版）—中国人民大学出版社—2018年\（02）《统计学》（第七版）—各章例题和习题数据—修订中\（13）第13章  时间序列分析和预测\（13-1）本章例题数据\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\study\statis\code\statis_learning\stats\time_series\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1A0B89-8833-49DD-A576-68473DDDA533}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="5832" windowHeight="4788"/>
+    <workbookView xWindow="1080" yWindow="765" windowWidth="20835" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="原始数据" sheetId="1" r:id="rId1"/>
@@ -137,7 +138,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -634,21 +635,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.19921875" style="1" customWidth="1"/>
-    <col min="2" max="5" width="10.09765625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.25" style="1" customWidth="1"/>
+    <col min="2" max="5" width="10.125" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -659,7 +660,7 @@
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
     </row>
-    <row r="2" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11"/>
       <c r="B2" s="7">
         <v>1</v>
@@ -674,7 +675,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
@@ -691,7 +692,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
@@ -708,7 +709,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
@@ -725,7 +726,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
@@ -742,7 +743,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>6</v>
       </c>
@@ -759,7 +760,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>7</v>
       </c>
@@ -779,150 +780,144 @@
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B10"/>
       <c r="C10"/>
     </row>
-    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B11"/>
       <c r="C11"/>
     </row>
-    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B12"/>
       <c r="C12"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B13"/>
       <c r="C13"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B14"/>
       <c r="C14"/>
     </row>
-    <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B15"/>
       <c r="C15"/>
     </row>
-    <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B16"/>
       <c r="C16"/>
     </row>
-    <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B17"/>
       <c r="C17"/>
     </row>
-    <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B18"/>
       <c r="C18"/>
     </row>
-    <row r="19" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B19"/>
       <c r="C19"/>
     </row>
-    <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B20"/>
       <c r="C20"/>
     </row>
-    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B21"/>
       <c r="C21"/>
     </row>
-    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B22"/>
       <c r="C22"/>
     </row>
-    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B23"/>
       <c r="C23"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="3"/>
       <c r="B24"/>
       <c r="C24"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B25"/>
       <c r="C25"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B26"/>
       <c r="C26"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B27"/>
       <c r="C27"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B28"/>
       <c r="C28"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B29"/>
       <c r="C29"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B30"/>
       <c r="C30"/>
-      <c r="F30" s="4">
-        <v>46</v>
-      </c>
-      <c r="G30" s="4">
-        <v>60</v>
-      </c>
-      <c r="H30" s="4">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B31"/>
       <c r="C31"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B32"/>
       <c r="C32"/>
     </row>
-    <row r="33" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B33"/>
       <c r="C33"/>
     </row>
-    <row r="34" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B34"/>
       <c r="C34"/>
     </row>
-    <row r="35" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B35"/>
       <c r="C35"/>
     </row>
-    <row r="36" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B36"/>
       <c r="C36"/>
     </row>
-    <row r="37" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B37"/>
       <c r="C37"/>
     </row>
-    <row r="38" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B38"/>
     </row>
-    <row r="39" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A39" s="3"/>
       <c r="B39"/>
     </row>
